--- a/ATDD Scenarios/LookupValue.xlsx
+++ b/ATDD Scenarios/LookupValue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvvugt\source\repos\Automated-Testing-in-Microsoft-Dynamics-365-Business-Central-Second-Edition\ATDD Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5082CB-571E-4E8F-B718-000DEE679627}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EC4690-3EBA-4234-857E-3BA28EE354D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{37BCB399-09BD-4B93-AAF4-793E3BF59A9F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{37BCB399-09BD-4B93-AAF4-793E3BF59A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="ATDD Scenarios" sheetId="1" r:id="rId1"/>
@@ -704,6 +704,9 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -723,6 +726,45 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -772,48 +814,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -828,28 +828,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D26859EB-C8DA-46B9-9E4C-0C2909BE7347}" name="Table29" displayName="Table29" ref="A1:M169" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D26859EB-C8DA-46B9-9E4C-0C2909BE7347}" name="Table29" displayName="Table29" ref="A1:M169" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:M169" xr:uid="{74C06549-5BDA-49EA-8217-9DE86359CCAF}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{94AE38D3-5B70-43B1-956A-6DFBCCC3FA71}" name="Feature"/>
     <tableColumn id="9" xr3:uid="{39B338AE-1DE7-47E0-9DFF-EB558B693D9E}" name="Sub Feature"/>
     <tableColumn id="11" xr3:uid="{8F685D88-2001-49B6-A560-44AC61A85751}" name="Document"/>
-    <tableColumn id="10" xr3:uid="{4B57D4E1-7F53-4AB1-93B7-628D0D759AD9}" name="UI" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{3B45BC65-AA1D-4611-BFDF-489E623921CC}" name="Positive-negative" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{2B877830-769C-4915-8F5E-FA01A5B40D0A}" name="Scenario" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{4B57D4E1-7F53-4AB1-93B7-628D0D759AD9}" name="UI" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{3B45BC65-AA1D-4611-BFDF-489E623921CC}" name="Positive-negative" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{2B877830-769C-4915-8F5E-FA01A5B40D0A}" name="Scenario" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{470B84A4-8789-448A-A9D4-722FDC7901C1}" name="Given-When-Then (Tag)"/>
-    <tableColumn id="5" xr3:uid="{187F9A26-F5CB-459C-8492-DB888AAB8AB0}" name="Given-When-Then (Description)" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{4877F37D-5FB5-43A6-8EB2-58971E92F829}" name="Scenario #" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{FB203AB3-EB4E-44B7-8CE3-8DC29CEF57D6}" name="ATDD Format" dataDxfId="9">
+    <tableColumn id="5" xr3:uid="{187F9A26-F5CB-459C-8492-DB888AAB8AB0}" name="Given-When-Then (Description)" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{4877F37D-5FB5-43A6-8EB2-58971E92F829}" name="Scenario #" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{FB203AB3-EB4E-44B7-8CE3-8DC29CEF57D6}" name="ATDD Format" dataDxfId="3">
       <calculatedColumnFormula>IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table29[[#This Row],[Feature]]," ",Table29[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table29[[#This Row],[Scenario '#]],"0000"),"] ",Table29[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table29[[#This Row],[Given-When-Then (Tag)]]),"] ",Table29[[#This Row],[Given-When-Then (Description)]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C2A0C887-D273-4FD4-A6E5-600431087352}" name="Code Format" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{C2A0C887-D273-4FD4-A6E5-600431087352}" name="Code Format" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{36DC9E15-3976-4F56-8FA0-7CF688CBA94D}" name="ATDD.TestScriptor Format" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{36DC9E15-3976-4F56-8FA0-7CF688CBA94D}" name="ATDD.TestScriptor Format" dataDxfId="1">
       <calculatedColumnFormula>IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]]," ",Table29[[#This Row],[Sub Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4AFC5B46-7C66-43E4-9E10-A3B6652FAF25}" name="Notes" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{4AFC5B46-7C66-43E4-9E10-A3B6652FAF25}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26A05CD-DD6F-435A-8EFB-058B6AB8AAF4}">
   <dimension ref="A1:M169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -6599,28 +6599,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="containsBlanks" dxfId="5" priority="5">
+    <cfRule type="containsBlanks" dxfId="14" priority="5">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
